--- a/output/GRIPEN_24193691000155.xlsx
+++ b/output/GRIPEN_24193691000155.xlsx
@@ -988,10 +988,10 @@
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5523399</v>
+        <v>0.5520337</v>
       </c>
       <c r="C55">
-        <v>0.002116831050143375</v>
+        <v>0.001919162888893711</v>
       </c>
     </row>
   </sheetData>

--- a/output/GRIPEN_24193691000155.xlsx
+++ b/output/GRIPEN_24193691000155.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GRIPEN ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,612 +383,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42551</v>
       </c>
       <c r="B2">
-        <v>-0.007618800000000037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42582</v>
       </c>
       <c r="B3">
-        <v>-0.004214099999999998</v>
-      </c>
-      <c r="C3">
         <v>0.003430838875222664</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42613</v>
       </c>
       <c r="B4">
-        <v>0.02040740000000008</v>
-      </c>
-      <c r="C4">
         <v>0.02472569655786461</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42643</v>
       </c>
       <c r="B5">
-        <v>0.04321400000000009</v>
-      </c>
-      <c r="C5">
         <v>0.02235048471816259</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42674</v>
       </c>
       <c r="B6">
-        <v>0.07200530000000005</v>
-      </c>
-      <c r="C6">
         <v>0.02759865185858312</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42704</v>
       </c>
       <c r="B7">
-        <v>0.09320039999999996</v>
-      </c>
-      <c r="C7">
         <v>0.01977145075681985</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42735</v>
       </c>
       <c r="B8">
-        <v>0.1147695</v>
-      </c>
-      <c r="C8">
         <v>0.0197302342736061</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42766</v>
       </c>
       <c r="B9">
-        <v>0.1446635000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02681630597177276</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42794</v>
       </c>
       <c r="B10">
-        <v>0.1556989</v>
-      </c>
-      <c r="C10">
         <v>0.009640737212289752</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42825</v>
       </c>
       <c r="B11">
-        <v>0.1776589</v>
-      </c>
-      <c r="C11">
         <v>0.01900148905567001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42855</v>
       </c>
       <c r="B12">
-        <v>0.176129</v>
-      </c>
-      <c r="C12">
         <v>-0.00129910282170842</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42886</v>
       </c>
       <c r="B13">
-        <v>0.1876572000000001</v>
-      </c>
-      <c r="C13">
         <v>0.00980181595726326</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42916</v>
       </c>
       <c r="B14">
-        <v>0.2033670999999999</v>
-      </c>
-      <c r="C14">
         <v>0.0132276384128347</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42947</v>
       </c>
       <c r="B15">
-        <v>0.2373959999999999</v>
-      </c>
-      <c r="C15">
         <v>0.02827807075662947</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42978</v>
       </c>
       <c r="B16">
-        <v>0.2426367</v>
-      </c>
-      <c r="C16">
         <v>0.004235265024292945</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43008</v>
       </c>
       <c r="B17">
-        <v>0.2717797</v>
-      </c>
-      <c r="C17">
         <v>0.02345255053226736</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43039</v>
       </c>
       <c r="B18">
-        <v>0.2676646</v>
-      </c>
-      <c r="C18">
         <v>-0.003235701906548649</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43069</v>
       </c>
       <c r="B19">
-        <v>0.2808531000000001</v>
-      </c>
-      <c r="C19">
         <v>0.01040377715051766</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43100</v>
       </c>
       <c r="B20">
-        <v>0.2976919</v>
-      </c>
-      <c r="C20">
         <v>0.01314655052948699</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43131</v>
       </c>
       <c r="B21">
-        <v>0.3511715</v>
-      </c>
-      <c r="C21">
         <v>0.04121132296502727</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43159</v>
       </c>
       <c r="B22">
-        <v>0.3537435</v>
-      </c>
-      <c r="C22">
         <v>0.001903533341252484</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43190</v>
       </c>
       <c r="B23">
-        <v>0.358684</v>
-      </c>
-      <c r="C23">
         <v>0.003649509674469309</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43220</v>
       </c>
       <c r="B24">
-        <v>0.3738613</v>
-      </c>
-      <c r="C24">
         <v>0.01117058859896769</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43251</v>
       </c>
       <c r="B25">
-        <v>0.3646795</v>
-      </c>
-      <c r="C25">
         <v>-0.006683207395098645</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43281</v>
       </c>
       <c r="B26">
-        <v>0.3965018</v>
-      </c>
-      <c r="C26">
         <v>0.0233185154463007</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43312</v>
       </c>
       <c r="B27">
-        <v>0.3910092000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.003933113441028091</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43343</v>
       </c>
       <c r="B28">
-        <v>0.4206996000000001</v>
-      </c>
-      <c r="C28">
         <v>0.02134450296949875</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43373</v>
       </c>
       <c r="B29">
-        <v>0.4349419000000001</v>
-      </c>
-      <c r="C29">
         <v>0.01002484972896456</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43404</v>
       </c>
       <c r="B30">
-        <v>0.4255899000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.006517337043402294</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43434</v>
       </c>
       <c r="B31">
-        <v>0.3885339999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.02599338000360418</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
       <c r="B32">
-        <v>0.3446975999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.03157027483662622</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43496</v>
       </c>
       <c r="B33">
-        <v>0.3587887000000001</v>
-      </c>
-      <c r="C33">
         <v>0.01047901029941611</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43524</v>
       </c>
       <c r="B34">
-        <v>0.3620698</v>
-      </c>
-      <c r="C34">
         <v>0.002414724231957432</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43555</v>
       </c>
       <c r="B35">
-        <v>0.371747</v>
-      </c>
-      <c r="C35">
         <v>0.007104775394036311</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43585</v>
       </c>
       <c r="B36">
-        <v>0.3713500999999999</v>
-      </c>
-      <c r="C36">
         <v>-0.0002893390690850151</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43616</v>
       </c>
       <c r="B37">
-        <v>0.3929924</v>
-      </c>
-      <c r="C37">
         <v>0.01578174676182265</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43646</v>
       </c>
       <c r="B38">
-        <v>0.4135930999999999</v>
-      </c>
-      <c r="C38">
         <v>0.01478881004663046</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43677</v>
       </c>
       <c r="B39">
-        <v>0.4230137</v>
-      </c>
-      <c r="C39">
         <v>0.006664293989550485</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43708</v>
       </c>
       <c r="B40">
-        <v>0.4441562999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01485762224214704</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43738</v>
       </c>
       <c r="B41">
-        <v>0.4380811</v>
-      </c>
-      <c r="C41">
         <v>-0.004206746873589795</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43769</v>
       </c>
       <c r="B42">
-        <v>0.4490955000000001</v>
-      </c>
-      <c r="C42">
         <v>0.007659095165078122</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43799</v>
       </c>
       <c r="B43">
-        <v>0.4388061000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.00710056721589436</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43830</v>
       </c>
       <c r="B44">
-        <v>0.4480729999999999</v>
-      </c>
-      <c r="C44">
         <v>0.00644068717807067</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43861</v>
       </c>
       <c r="B45">
-        <v>0.4501603999999999</v>
-      </c>
-      <c r="C45">
         <v>0.001441501913232335</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43890</v>
       </c>
       <c r="B46">
-        <v>0.4671387</v>
-      </c>
-      <c r="C46">
         <v>0.01170787728033407</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43921</v>
       </c>
       <c r="B47">
-        <v>0.4699313000000001</v>
-      </c>
-      <c r="C47">
         <v>0.00190343285198602</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43951</v>
       </c>
       <c r="B48">
-        <v>0.4879568999999999</v>
-      </c>
-      <c r="C48">
         <v>0.01226288602739456</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43982</v>
       </c>
       <c r="B49">
-        <v>0.4731875999999999</v>
-      </c>
-      <c r="C49">
         <v>-0.009925892342715015</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44012</v>
       </c>
       <c r="B50">
-        <v>0.4909184</v>
-      </c>
-      <c r="C50">
         <v>0.0120356701346116</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44043</v>
       </c>
       <c r="B51">
-        <v>0.5050988999999999</v>
-      </c>
-      <c r="C51">
         <v>0.009511251588282699</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44074</v>
       </c>
       <c r="B52">
-        <v>0.5278210000000001</v>
-      </c>
-      <c r="C52">
         <v>0.01509674879172396</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44104</v>
       </c>
       <c r="B53">
-        <v>0.5256386</v>
-      </c>
-      <c r="C53">
         <v>-0.001428439588145536</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44135</v>
       </c>
       <c r="B54">
-        <v>0.5490607999999999</v>
-      </c>
-      <c r="C54">
         <v>0.01535239079556594</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5520337</v>
-      </c>
-      <c r="C55">
-        <v>0.001919162888893711</v>
+        <v>-0.005497137362200255</v>
       </c>
     </row>
   </sheetData>
